--- a/tests/drift-function.xlsx
+++ b/tests/drift-function.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grighini/workspace/backend/me/gpio-rpi-van-battery-stats/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC5831-26E6-974B-8B72-893E4E20F807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EBC1CE-D285-F54F-96A2-434568274D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17280" xr2:uid="{60D3B6B9-021E-6343-92C7-666CF93B5B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB0206-B2A5-714E-9A0D-D464D940CEBF}">
   <dimension ref="F8:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +460,7 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="G9">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H9">
         <v>22</v>
@@ -470,11 +470,11 @@
       </c>
       <c r="L9">
         <f>$F$9+(($H$9-K9)*$G$9)^2</f>
-        <v>0.48663503999999996</v>
+        <v>0.48712896</v>
       </c>
       <c r="M9">
         <f>$F$9+(($H$9-K9)*$G$9)</f>
-        <v>0.51119999999999999</v>
+        <v>0.51959999999999995</v>
       </c>
     </row>
     <row r="10" spans="6:13" x14ac:dyDescent="0.2">
@@ -483,11 +483,11 @@
       </c>
       <c r="L10">
         <f t="shared" ref="L10:L73" si="0">$F$9+(($H$9-K10)*$G$9)^2</f>
-        <v>0.48659048999999999</v>
+        <v>0.48704976</v>
       </c>
       <c r="M10">
         <f t="shared" ref="M10:M73" si="1">$F$9+(($H$9-K10)*$G$9)</f>
-        <v>0.51029999999999998</v>
+        <v>0.51839999999999997</v>
       </c>
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.2">
@@ -496,11 +496,11 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0.48654755999999999</v>
+        <v>0.48697343999999998</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>0.50939999999999996</v>
+        <v>0.51719999999999999</v>
       </c>
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.2">
@@ -509,11 +509,11 @@
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0.48650624999999997</v>
+        <v>0.4869</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>0.50849999999999995</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.2">
@@ -522,11 +522,11 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0.48646655999999999</v>
+        <v>0.48682944</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>0.50759999999999994</v>
+        <v>0.51479999999999992</v>
       </c>
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.2">
@@ -535,11 +535,11 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0.48642848999999999</v>
+        <v>0.48676175999999999</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>0.50670000000000004</v>
+        <v>0.51359999999999995</v>
       </c>
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.2">
@@ -548,11 +548,11 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.48639203999999997</v>
+        <v>0.48669696000000001</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>0.50580000000000003</v>
+        <v>0.51239999999999997</v>
       </c>
     </row>
     <row r="16" spans="6:13" x14ac:dyDescent="0.2">
@@ -561,11 +561,11 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0.48635720999999998</v>
+        <v>0.48663503999999996</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>0.50490000000000002</v>
+        <v>0.51119999999999999</v>
       </c>
     </row>
     <row r="17" spans="11:13" x14ac:dyDescent="0.2">
@@ -574,11 +574,11 @@
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0.48632399999999998</v>
+        <v>0.48657600000000001</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>0.504</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="18" spans="11:13" x14ac:dyDescent="0.2">
@@ -587,11 +587,11 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.48629241000000001</v>
+        <v>0.48651983999999998</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>0.50309999999999999</v>
+        <v>0.50879999999999992</v>
       </c>
     </row>
     <row r="19" spans="11:13" x14ac:dyDescent="0.2">
@@ -600,11 +600,11 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.48626243999999996</v>
+        <v>0.48646655999999999</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>0.50219999999999998</v>
+        <v>0.50760000000000005</v>
       </c>
     </row>
     <row r="20" spans="11:13" x14ac:dyDescent="0.2">
@@ -613,11 +613,11 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.48623409000000001</v>
+        <v>0.48641615999999999</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>0.50129999999999997</v>
+        <v>0.50639999999999996</v>
       </c>
     </row>
     <row r="21" spans="11:13" x14ac:dyDescent="0.2">
@@ -626,11 +626,11 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.48620735999999998</v>
+        <v>0.48636863999999996</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>0.50039999999999996</v>
+        <v>0.50519999999999998</v>
       </c>
     </row>
     <row r="22" spans="11:13" x14ac:dyDescent="0.2">
@@ -639,11 +639,11 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.48618224999999998</v>
+        <v>0.48632399999999998</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>0.4995</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="23" spans="11:13" x14ac:dyDescent="0.2">
@@ -652,11 +652,11 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.48615875999999997</v>
+        <v>0.48628223999999998</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.49859999999999999</v>
+        <v>0.50279999999999991</v>
       </c>
     </row>
     <row r="24" spans="11:13" x14ac:dyDescent="0.2">
@@ -665,11 +665,11 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>0.48613688999999999</v>
+        <v>0.48624336000000001</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>0.49769999999999998</v>
+        <v>0.50160000000000005</v>
       </c>
     </row>
     <row r="25" spans="11:13" x14ac:dyDescent="0.2">
@@ -678,11 +678,11 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>0.48611663999999999</v>
+        <v>0.48620735999999998</v>
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>0.49679999999999996</v>
+        <v>0.50039999999999996</v>
       </c>
     </row>
     <row r="26" spans="11:13" x14ac:dyDescent="0.2">
@@ -691,11 +691,11 @@
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>0.48609800999999997</v>
+        <v>0.48617423999999998</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>0.49590000000000001</v>
+        <v>0.49919999999999998</v>
       </c>
     </row>
     <row r="27" spans="11:13" x14ac:dyDescent="0.2">
@@ -704,11 +704,11 @@
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>0.48608099999999999</v>
+        <v>0.48614399999999997</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>0.495</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="28" spans="11:13" x14ac:dyDescent="0.2">
@@ -717,11 +717,11 @@
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>0.48606560999999998</v>
+        <v>0.48611663999999999</v>
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>0.49409999999999998</v>
+        <v>0.49679999999999996</v>
       </c>
     </row>
     <row r="29" spans="11:13" x14ac:dyDescent="0.2">
@@ -730,11 +730,11 @@
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>0.48605184000000001</v>
+        <v>0.48609216</v>
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>0.49319999999999997</v>
+        <v>0.49559999999999998</v>
       </c>
     </row>
     <row r="30" spans="11:13" x14ac:dyDescent="0.2">
@@ -743,11 +743,11 @@
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>0.48603968999999997</v>
+        <v>0.48607055999999998</v>
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>0.49229999999999996</v>
+        <v>0.49439999999999995</v>
       </c>
     </row>
     <row r="31" spans="11:13" x14ac:dyDescent="0.2">
@@ -756,11 +756,11 @@
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>0.48602915999999996</v>
+        <v>0.48605184000000001</v>
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>0.4914</v>
+        <v>0.49320000000000003</v>
       </c>
     </row>
     <row r="32" spans="11:13" x14ac:dyDescent="0.2">
@@ -769,11 +769,11 @@
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>0.48602024999999999</v>
+        <v>0.48603599999999997</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.49049999999999999</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="33" spans="11:13" x14ac:dyDescent="0.2">
@@ -782,11 +782,11 @@
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>0.48601295999999999</v>
+        <v>0.48602303999999996</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>0.48959999999999998</v>
+        <v>0.49079999999999996</v>
       </c>
     </row>
     <row r="34" spans="11:13" x14ac:dyDescent="0.2">
@@ -795,11 +795,11 @@
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>0.48600728999999998</v>
+        <v>0.48601295999999999</v>
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>0.48869999999999997</v>
+        <v>0.48959999999999998</v>
       </c>
     </row>
     <row r="35" spans="11:13" x14ac:dyDescent="0.2">
@@ -808,11 +808,11 @@
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>0.48600324</v>
+        <v>0.48600576000000001</v>
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>0.48779999999999996</v>
+        <v>0.4884</v>
       </c>
     </row>
     <row r="36" spans="11:13" x14ac:dyDescent="0.2">
@@ -821,11 +821,11 @@
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>0.48600081000000001</v>
+        <v>0.48600144000000001</v>
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>0.4869</v>
+        <v>0.48720000000000002</v>
       </c>
     </row>
     <row r="37" spans="11:13" x14ac:dyDescent="0.2">
@@ -847,11 +847,11 @@
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>0.48600081000000001</v>
+        <v>0.48600144000000001</v>
       </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>0.48509999999999998</v>
+        <v>0.48479999999999995</v>
       </c>
     </row>
     <row r="39" spans="11:13" x14ac:dyDescent="0.2">
@@ -860,11 +860,11 @@
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>0.48600324</v>
+        <v>0.48600576000000001</v>
       </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>0.48420000000000002</v>
+        <v>0.48359999999999997</v>
       </c>
     </row>
     <row r="40" spans="11:13" x14ac:dyDescent="0.2">
@@ -873,11 +873,11 @@
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>0.48600728999999998</v>
+        <v>0.48601295999999999</v>
       </c>
       <c r="M40">
         <f t="shared" si="1"/>
-        <v>0.48330000000000001</v>
+        <v>0.4824</v>
       </c>
     </row>
     <row r="41" spans="11:13" x14ac:dyDescent="0.2">
@@ -886,11 +886,11 @@
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>0.48601295999999999</v>
+        <v>0.48602303999999996</v>
       </c>
       <c r="M41">
         <f t="shared" si="1"/>
-        <v>0.4824</v>
+        <v>0.48120000000000002</v>
       </c>
     </row>
     <row r="42" spans="11:13" x14ac:dyDescent="0.2">
@@ -899,11 +899,11 @@
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>0.48602024999999999</v>
+        <v>0.48603599999999997</v>
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>0.48149999999999998</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="43" spans="11:13" x14ac:dyDescent="0.2">
@@ -912,11 +912,11 @@
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>0.48602916000000002</v>
+        <v>0.48605184000000001</v>
       </c>
       <c r="M43">
         <f t="shared" si="1"/>
-        <v>0.48059999999999908</v>
+        <v>0.47879999999999878</v>
       </c>
     </row>
     <row r="44" spans="11:13" x14ac:dyDescent="0.2">
@@ -925,11 +925,11 @@
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>0.48603968999999997</v>
+        <v>0.48607055999999998</v>
       </c>
       <c r="M44">
         <f t="shared" si="1"/>
-        <v>0.47970000000000002</v>
+        <v>0.47760000000000002</v>
       </c>
     </row>
     <row r="45" spans="11:13" x14ac:dyDescent="0.2">
@@ -938,11 +938,11 @@
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>0.48605184000000001</v>
+        <v>0.48609216</v>
       </c>
       <c r="M45">
         <f t="shared" si="1"/>
-        <v>0.47879999999999906</v>
+        <v>0.47639999999999877</v>
       </c>
     </row>
     <row r="46" spans="11:13" x14ac:dyDescent="0.2">
@@ -951,11 +951,11 @@
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>0.48606560999999998</v>
+        <v>0.48611663999999999</v>
       </c>
       <c r="M46">
         <f t="shared" si="1"/>
-        <v>0.47789999999999999</v>
+        <v>0.47520000000000001</v>
       </c>
     </row>
     <row r="47" spans="11:13" x14ac:dyDescent="0.2">
@@ -964,11 +964,11 @@
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>0.48608099999999999</v>
+        <v>0.48614399999999997</v>
       </c>
       <c r="M47">
         <f t="shared" si="1"/>
-        <v>0.47699999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="48" spans="11:13" x14ac:dyDescent="0.2">
@@ -977,11 +977,11 @@
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>0.48609801000000002</v>
+        <v>0.48617424000000004</v>
       </c>
       <c r="M48">
         <f t="shared" si="1"/>
-        <v>0.47609999999999908</v>
+        <v>0.47279999999999878</v>
       </c>
     </row>
     <row r="49" spans="11:13" x14ac:dyDescent="0.2">
@@ -990,11 +990,11 @@
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>0.48611663999999999</v>
+        <v>0.48620736000000003</v>
       </c>
       <c r="M49">
         <f t="shared" si="1"/>
-        <v>0.47519999999999912</v>
+        <v>0.4715999999999988</v>
       </c>
     </row>
     <row r="50" spans="11:13" x14ac:dyDescent="0.2">
@@ -1003,11 +1003,11 @@
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>0.48613688999999999</v>
+        <v>0.48624336000000001</v>
       </c>
       <c r="M50">
         <f t="shared" si="1"/>
-        <v>0.47429999999999911</v>
+        <v>0.47039999999999876</v>
       </c>
     </row>
     <row r="51" spans="11:13" x14ac:dyDescent="0.2">
@@ -1016,11 +1016,11 @@
       </c>
       <c r="L51">
         <f t="shared" si="0"/>
-        <v>0.48615876000000002</v>
+        <v>0.48628224000000003</v>
       </c>
       <c r="M51">
         <f t="shared" si="1"/>
-        <v>0.4733999999999991</v>
+        <v>0.46919999999999878</v>
       </c>
     </row>
     <row r="52" spans="11:13" x14ac:dyDescent="0.2">
@@ -1029,11 +1029,11 @@
       </c>
       <c r="L52">
         <f t="shared" si="0"/>
-        <v>0.48618225000000004</v>
+        <v>0.48632400000000003</v>
       </c>
       <c r="M52">
         <f t="shared" si="1"/>
-        <v>0.47249999999999909</v>
+        <v>0.46799999999999881</v>
       </c>
     </row>
     <row r="53" spans="11:13" x14ac:dyDescent="0.2">
@@ -1042,11 +1042,11 @@
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
-        <v>0.48620736000000003</v>
+        <v>0.48636864000000002</v>
       </c>
       <c r="M53">
         <f t="shared" si="1"/>
-        <v>0.47159999999999908</v>
+        <v>0.46679999999999877</v>
       </c>
     </row>
     <row r="54" spans="11:13" x14ac:dyDescent="0.2">
@@ -1055,11 +1055,11 @@
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
-        <v>0.48623409000000001</v>
+        <v>0.48641616000000004</v>
       </c>
       <c r="M54">
         <f t="shared" si="1"/>
-        <v>0.47069999999999912</v>
+        <v>0.46559999999999879</v>
       </c>
     </row>
     <row r="55" spans="11:13" x14ac:dyDescent="0.2">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="L55">
         <f t="shared" si="0"/>
-        <v>0.48626244000000002</v>
+        <v>0.48646656000000005</v>
       </c>
       <c r="M55">
         <f t="shared" si="1"/>
-        <v>0.46979999999999911</v>
+        <v>0.46439999999999881</v>
       </c>
     </row>
     <row r="56" spans="11:13" x14ac:dyDescent="0.2">
@@ -1081,11 +1081,11 @@
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>0.48629241000000001</v>
+        <v>0.48651984000000004</v>
       </c>
       <c r="M56">
         <f t="shared" si="1"/>
-        <v>0.4688999999999991</v>
+        <v>0.46319999999999878</v>
       </c>
     </row>
     <row r="57" spans="11:13" x14ac:dyDescent="0.2">
@@ -1094,11 +1094,11 @@
       </c>
       <c r="L57">
         <f t="shared" si="0"/>
-        <v>0.48632400000000003</v>
+        <v>0.48657600000000006</v>
       </c>
       <c r="M57">
         <f t="shared" si="1"/>
-        <v>0.46799999999999908</v>
+        <v>0.4619999999999988</v>
       </c>
     </row>
     <row r="58" spans="11:13" x14ac:dyDescent="0.2">
@@ -1107,11 +1107,11 @@
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>0.48635721000000004</v>
+        <v>0.48663504000000007</v>
       </c>
       <c r="M58">
         <f t="shared" si="1"/>
-        <v>0.46709999999999907</v>
+        <v>0.46079999999999877</v>
       </c>
     </row>
     <row r="59" spans="11:13" x14ac:dyDescent="0.2">
@@ -1120,11 +1120,11 @@
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
-        <v>0.48639204000000003</v>
+        <v>0.48669696000000007</v>
       </c>
       <c r="M59">
         <f t="shared" si="1"/>
-        <v>0.46619999999999912</v>
+        <v>0.45959999999999879</v>
       </c>
     </row>
     <row r="60" spans="11:13" x14ac:dyDescent="0.2">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
-        <v>0.48642849000000005</v>
+        <v>0.48676176000000004</v>
       </c>
       <c r="M60">
         <f t="shared" si="1"/>
-        <v>0.4652999999999991</v>
+        <v>0.45839999999999881</v>
       </c>
     </row>
     <row r="61" spans="11:13" x14ac:dyDescent="0.2">
@@ -1146,11 +1146,11 @@
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
-        <v>0.48646656000000005</v>
+        <v>0.48682944000000006</v>
       </c>
       <c r="M61">
         <f t="shared" si="1"/>
-        <v>0.46439999999999909</v>
+        <v>0.45719999999999877</v>
       </c>
     </row>
     <row r="62" spans="11:13" x14ac:dyDescent="0.2">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>0.48650625000000003</v>
+        <v>0.48690000000000005</v>
       </c>
       <c r="M62">
         <f t="shared" si="1"/>
-        <v>0.46349999999999908</v>
+        <v>0.4559999999999988</v>
       </c>
     </row>
     <row r="63" spans="11:13" x14ac:dyDescent="0.2">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="L63">
         <f t="shared" si="0"/>
-        <v>0.48654756000000005</v>
+        <v>0.48697344000000009</v>
       </c>
       <c r="M63">
         <f t="shared" si="1"/>
-        <v>0.46259999999999907</v>
+        <v>0.45479999999999876</v>
       </c>
     </row>
     <row r="64" spans="11:13" x14ac:dyDescent="0.2">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
-        <v>0.48659049000000004</v>
+        <v>0.48704976000000005</v>
       </c>
       <c r="M64">
         <f t="shared" si="1"/>
-        <v>0.46169999999999911</v>
+        <v>0.45359999999999878</v>
       </c>
     </row>
     <row r="65" spans="11:13" x14ac:dyDescent="0.2">
@@ -1198,11 +1198,11 @@
       </c>
       <c r="L65">
         <f t="shared" si="0"/>
-        <v>0.48663504000000002</v>
+        <v>0.48712896000000006</v>
       </c>
       <c r="M65">
         <f t="shared" si="1"/>
-        <v>0.4607999999999991</v>
+        <v>0.4523999999999988</v>
       </c>
     </row>
     <row r="66" spans="11:13" x14ac:dyDescent="0.2">
@@ -1211,11 +1211,11 @@
       </c>
       <c r="L66">
         <f t="shared" si="0"/>
-        <v>0.48668121000000003</v>
+        <v>0.4872110400000001</v>
       </c>
       <c r="M66">
         <f t="shared" si="1"/>
-        <v>0.45989999999999909</v>
+        <v>0.45119999999999877</v>
       </c>
     </row>
     <row r="67" spans="11:13" x14ac:dyDescent="0.2">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="L67">
         <f t="shared" si="0"/>
-        <v>0.48672900000000002</v>
+        <v>0.48729600000000006</v>
       </c>
       <c r="M67">
         <f t="shared" si="1"/>
-        <v>0.45899999999999908</v>
+        <v>0.44999999999999879</v>
       </c>
     </row>
     <row r="68" spans="11:13" x14ac:dyDescent="0.2">
@@ -1237,11 +1237,11 @@
       </c>
       <c r="L68">
         <f t="shared" si="0"/>
-        <v>0.48677841000000005</v>
+        <v>0.48738384000000007</v>
       </c>
       <c r="M68">
         <f t="shared" si="1"/>
-        <v>0.45809999999999906</v>
+        <v>0.44879999999999876</v>
       </c>
     </row>
     <row r="69" spans="11:13" x14ac:dyDescent="0.2">
@@ -1250,11 +1250,11 @@
       </c>
       <c r="L69">
         <f t="shared" si="0"/>
-        <v>0.48682944000000006</v>
+        <v>0.48747456000000006</v>
       </c>
       <c r="M69">
         <f t="shared" si="1"/>
-        <v>0.45719999999999911</v>
+        <v>0.44759999999999878</v>
       </c>
     </row>
     <row r="70" spans="11:13" x14ac:dyDescent="0.2">
@@ -1263,11 +1263,11 @@
       </c>
       <c r="L70">
         <f t="shared" si="0"/>
-        <v>0.48688209000000005</v>
+        <v>0.48756816000000008</v>
       </c>
       <c r="M70">
         <f t="shared" si="1"/>
-        <v>0.4562999999999991</v>
+        <v>0.4463999999999988</v>
       </c>
     </row>
     <row r="71" spans="11:13" x14ac:dyDescent="0.2">
@@ -1276,11 +1276,11 @@
       </c>
       <c r="L71">
         <f t="shared" si="0"/>
-        <v>0.48693636000000007</v>
+        <v>0.48766464000000009</v>
       </c>
       <c r="M71">
         <f t="shared" si="1"/>
-        <v>0.45539999999999908</v>
+        <v>0.44519999999999876</v>
       </c>
     </row>
     <row r="72" spans="11:13" x14ac:dyDescent="0.2">
@@ -1289,11 +1289,11 @@
       </c>
       <c r="L72">
         <f t="shared" si="0"/>
-        <v>0.48699225000000007</v>
+        <v>0.48776400000000009</v>
       </c>
       <c r="M72">
         <f t="shared" si="1"/>
-        <v>0.45449999999999907</v>
+        <v>0.44399999999999878</v>
       </c>
     </row>
     <row r="73" spans="11:13" x14ac:dyDescent="0.2">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="L73">
         <f t="shared" si="0"/>
-        <v>0.48704976000000005</v>
+        <v>0.48786624000000012</v>
       </c>
       <c r="M73">
         <f t="shared" si="1"/>
-        <v>0.45359999999999906</v>
+        <v>0.44279999999999875</v>
       </c>
     </row>
     <row r="74" spans="11:13" x14ac:dyDescent="0.2">
@@ -1315,11 +1315,11 @@
       </c>
       <c r="L74">
         <f t="shared" ref="L74:L117" si="2">$F$9+(($H$9-K74)*$G$9)^2</f>
-        <v>0.48710889000000007</v>
+        <v>0.48797136000000008</v>
       </c>
       <c r="M74">
         <f t="shared" ref="M74:M117" si="3">$F$9+(($H$9-K74)*$G$9)</f>
-        <v>0.4526999999999991</v>
+        <v>0.44159999999999877</v>
       </c>
     </row>
     <row r="75" spans="11:13" x14ac:dyDescent="0.2">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="L75">
         <f t="shared" si="2"/>
-        <v>0.48716964000000007</v>
+        <v>0.48807936000000007</v>
       </c>
       <c r="M75">
         <f t="shared" si="3"/>
-        <v>0.45179999999999909</v>
+        <v>0.44039999999999879</v>
       </c>
     </row>
     <row r="76" spans="11:13" x14ac:dyDescent="0.2">
@@ -1341,11 +1341,11 @@
       </c>
       <c r="L76">
         <f t="shared" si="2"/>
-        <v>0.48723201000000005</v>
+        <v>0.48819024000000011</v>
       </c>
       <c r="M76">
         <f t="shared" si="3"/>
-        <v>0.45089999999999908</v>
+        <v>0.43919999999999876</v>
       </c>
     </row>
     <row r="77" spans="11:13" x14ac:dyDescent="0.2">
@@ -1354,11 +1354,11 @@
       </c>
       <c r="L77">
         <f t="shared" si="2"/>
-        <v>0.48729600000000006</v>
+        <v>0.48830400000000013</v>
       </c>
       <c r="M77">
         <f t="shared" si="3"/>
-        <v>0.44999999999999907</v>
+        <v>0.43799999999999878</v>
       </c>
     </row>
     <row r="78" spans="11:13" x14ac:dyDescent="0.2">
@@ -1367,11 +1367,11 @@
       </c>
       <c r="L78">
         <f t="shared" si="2"/>
-        <v>0.48736161000000006</v>
+        <v>0.48842064000000013</v>
       </c>
       <c r="M78">
         <f t="shared" si="3"/>
-        <v>0.44909999999999906</v>
+        <v>0.43679999999999874</v>
       </c>
     </row>
     <row r="79" spans="11:13" x14ac:dyDescent="0.2">
@@ -1380,11 +1380,11 @@
       </c>
       <c r="L79">
         <f t="shared" si="2"/>
-        <v>0.48742884000000003</v>
+        <v>0.48854016000000011</v>
       </c>
       <c r="M79">
         <f t="shared" si="3"/>
-        <v>0.4481999999999991</v>
+        <v>0.43559999999999882</v>
       </c>
     </row>
     <row r="80" spans="11:13" x14ac:dyDescent="0.2">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="L80">
         <f t="shared" si="2"/>
-        <v>0.48749769000000004</v>
+        <v>0.48866256000000013</v>
       </c>
       <c r="M80">
         <f t="shared" si="3"/>
-        <v>0.44729999999999909</v>
+        <v>0.43439999999999879</v>
       </c>
     </row>
     <row r="81" spans="11:13" x14ac:dyDescent="0.2">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="L81">
         <f t="shared" si="2"/>
-        <v>0.48756816000000008</v>
+        <v>0.48878784000000014</v>
       </c>
       <c r="M81">
         <f t="shared" si="3"/>
-        <v>0.44639999999999908</v>
+        <v>0.43319999999999875</v>
       </c>
     </row>
     <row r="82" spans="11:13" x14ac:dyDescent="0.2">
@@ -1419,11 +1419,11 @@
       </c>
       <c r="L82">
         <f t="shared" si="2"/>
-        <v>0.48764025000000005</v>
+        <v>0.48891600000000013</v>
       </c>
       <c r="M82">
         <f t="shared" si="3"/>
-        <v>0.44549999999999912</v>
+        <v>0.43199999999999877</v>
       </c>
     </row>
     <row r="83" spans="11:13" x14ac:dyDescent="0.2">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="L83">
         <f t="shared" si="2"/>
-        <v>0.48771396000000006</v>
+        <v>0.4890470400000001</v>
       </c>
       <c r="M83">
         <f t="shared" si="3"/>
-        <v>0.44459999999999911</v>
+        <v>0.4307999999999988</v>
       </c>
     </row>
     <row r="84" spans="11:13" x14ac:dyDescent="0.2">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="L84">
         <f t="shared" si="2"/>
-        <v>0.48778929000000004</v>
+        <v>0.48918096000000011</v>
       </c>
       <c r="M84">
         <f t="shared" si="3"/>
-        <v>0.4436999999999991</v>
+        <v>0.42959999999999882</v>
       </c>
     </row>
     <row r="85" spans="11:13" x14ac:dyDescent="0.2">
@@ -1458,11 +1458,11 @@
       </c>
       <c r="L85">
         <f t="shared" si="2"/>
-        <v>0.48786624000000006</v>
+        <v>0.4893177600000001</v>
       </c>
       <c r="M85">
         <f t="shared" si="3"/>
-        <v>0.44279999999999908</v>
+        <v>0.42839999999999878</v>
       </c>
     </row>
     <row r="86" spans="11:13" x14ac:dyDescent="0.2">
@@ -1471,11 +1471,11 @@
       </c>
       <c r="L86">
         <f t="shared" si="2"/>
-        <v>0.48794481000000006</v>
+        <v>0.48945744000000013</v>
       </c>
       <c r="M86">
         <f t="shared" si="3"/>
-        <v>0.44189999999999907</v>
+        <v>0.42719999999999875</v>
       </c>
     </row>
     <row r="87" spans="11:13" x14ac:dyDescent="0.2">
@@ -1484,11 +1484,11 @@
       </c>
       <c r="L87">
         <f t="shared" si="2"/>
-        <v>0.48802500000000004</v>
+        <v>0.48960000000000015</v>
       </c>
       <c r="M87">
         <f t="shared" si="3"/>
-        <v>0.44099999999999911</v>
+        <v>0.42599999999999877</v>
       </c>
     </row>
     <row r="88" spans="11:13" x14ac:dyDescent="0.2">
@@ -1497,11 +1497,11 @@
       </c>
       <c r="L88">
         <f t="shared" si="2"/>
-        <v>0.48810681000000006</v>
+        <v>0.48974544000000014</v>
       </c>
       <c r="M88">
         <f t="shared" si="3"/>
-        <v>0.4400999999999991</v>
+        <v>0.42479999999999879</v>
       </c>
     </row>
     <row r="89" spans="11:13" x14ac:dyDescent="0.2">
@@ -1510,11 +1510,11 @@
       </c>
       <c r="L89">
         <f t="shared" si="2"/>
-        <v>0.48819024000000005</v>
+        <v>0.48989376000000012</v>
       </c>
       <c r="M89">
         <f t="shared" si="3"/>
-        <v>0.43919999999999909</v>
+        <v>0.42359999999999881</v>
       </c>
     </row>
     <row r="90" spans="11:13" x14ac:dyDescent="0.2">
@@ -1523,11 +1523,11 @@
       </c>
       <c r="L90">
         <f t="shared" si="2"/>
-        <v>0.48827529000000008</v>
+        <v>0.49004496000000014</v>
       </c>
       <c r="M90">
         <f t="shared" si="3"/>
-        <v>0.43829999999999908</v>
+        <v>0.42239999999999878</v>
       </c>
     </row>
     <row r="91" spans="11:13" x14ac:dyDescent="0.2">
@@ -1536,11 +1536,11 @@
       </c>
       <c r="L91">
         <f t="shared" si="2"/>
-        <v>0.48836196000000009</v>
+        <v>0.49019904000000014</v>
       </c>
       <c r="M91">
         <f t="shared" si="3"/>
-        <v>0.43739999999999907</v>
+        <v>0.4211999999999988</v>
       </c>
     </row>
     <row r="92" spans="11:13" x14ac:dyDescent="0.2">
@@ -1549,11 +1549,11 @@
       </c>
       <c r="L92">
         <f t="shared" si="2"/>
-        <v>0.48845025000000009</v>
+        <v>0.49035600000000013</v>
       </c>
       <c r="M92">
         <f t="shared" si="3"/>
-        <v>0.43649999999999911</v>
+        <v>0.41999999999999882</v>
       </c>
     </row>
     <row r="93" spans="11:13" x14ac:dyDescent="0.2">
@@ -1562,11 +1562,11 @@
       </c>
       <c r="L93">
         <f t="shared" si="2"/>
-        <v>0.48854016000000006</v>
+        <v>0.49051584000000015</v>
       </c>
       <c r="M93">
         <f t="shared" si="3"/>
-        <v>0.4355999999999991</v>
+        <v>0.41879999999999878</v>
       </c>
     </row>
     <row r="94" spans="11:13" x14ac:dyDescent="0.2">
@@ -1575,11 +1575,11 @@
       </c>
       <c r="L94">
         <f t="shared" si="2"/>
-        <v>0.48863169000000006</v>
+        <v>0.49067856000000015</v>
       </c>
       <c r="M94">
         <f t="shared" si="3"/>
-        <v>0.43469999999999909</v>
+        <v>0.41759999999999881</v>
       </c>
     </row>
     <row r="95" spans="11:13" x14ac:dyDescent="0.2">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
-        <v>0.4887248400000001</v>
+        <v>0.49084416000000014</v>
       </c>
       <c r="M95">
         <f t="shared" si="3"/>
-        <v>0.43379999999999908</v>
+        <v>0.41639999999999877</v>
       </c>
     </row>
     <row r="96" spans="11:13" x14ac:dyDescent="0.2">
@@ -1601,11 +1601,11 @@
       </c>
       <c r="L96">
         <f t="shared" si="2"/>
-        <v>0.48881961000000007</v>
+        <v>0.49101264000000017</v>
       </c>
       <c r="M96">
         <f t="shared" si="3"/>
-        <v>0.43289999999999906</v>
+        <v>0.41519999999999879</v>
       </c>
     </row>
     <row r="97" spans="11:13" x14ac:dyDescent="0.2">
@@ -1614,11 +1614,11 @@
       </c>
       <c r="L97">
         <f t="shared" si="2"/>
-        <v>0.48891600000000007</v>
+        <v>0.49118400000000018</v>
       </c>
       <c r="M97">
         <f t="shared" si="3"/>
-        <v>0.43199999999999911</v>
+        <v>0.41399999999999881</v>
       </c>
     </row>
     <row r="98" spans="11:13" x14ac:dyDescent="0.2">
@@ -1627,11 +1627,11 @@
       </c>
       <c r="L98">
         <f t="shared" si="2"/>
-        <v>0.48901401000000011</v>
+        <v>0.49135824000000017</v>
       </c>
       <c r="M98">
         <f t="shared" si="3"/>
-        <v>0.4310999999999991</v>
+        <v>0.41279999999999878</v>
       </c>
     </row>
     <row r="99" spans="11:13" x14ac:dyDescent="0.2">
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L99">
         <f t="shared" si="2"/>
-        <v>0.48911364000000007</v>
+        <v>0.49153536000000014</v>
       </c>
       <c r="M99">
         <f t="shared" si="3"/>
-        <v>0.43019999999999908</v>
+        <v>0.4115999999999988</v>
       </c>
     </row>
     <row r="100" spans="11:13" x14ac:dyDescent="0.2">
@@ -1653,11 +1653,11 @@
       </c>
       <c r="L100">
         <f t="shared" si="2"/>
-        <v>0.48921489000000007</v>
+        <v>0.49171536000000016</v>
       </c>
       <c r="M100">
         <f t="shared" si="3"/>
-        <v>0.42929999999999907</v>
+        <v>0.41039999999999877</v>
       </c>
     </row>
     <row r="101" spans="11:13" x14ac:dyDescent="0.2">
@@ -1666,11 +1666,11 @@
       </c>
       <c r="L101">
         <f t="shared" si="2"/>
-        <v>0.4893177600000001</v>
+        <v>0.49189824000000015</v>
       </c>
       <c r="M101">
         <f t="shared" si="3"/>
-        <v>0.42839999999999906</v>
+        <v>0.40919999999999879</v>
       </c>
     </row>
     <row r="102" spans="11:13" x14ac:dyDescent="0.2">
@@ -1679,11 +1679,11 @@
       </c>
       <c r="L102">
         <f t="shared" si="2"/>
-        <v>0.48942225000000011</v>
+        <v>0.49208400000000019</v>
       </c>
       <c r="M102">
         <f t="shared" si="3"/>
-        <v>0.4274999999999991</v>
+        <v>0.40799999999999881</v>
       </c>
     </row>
     <row r="103" spans="11:13" x14ac:dyDescent="0.2">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="L103">
         <f t="shared" si="2"/>
-        <v>0.48952836000000011</v>
+        <v>0.49227264000000021</v>
       </c>
       <c r="M103">
         <f t="shared" si="3"/>
-        <v>0.42659999999999909</v>
+        <v>0.40679999999999877</v>
       </c>
     </row>
     <row r="104" spans="11:13" x14ac:dyDescent="0.2">
@@ -1705,11 +1705,11 @@
       </c>
       <c r="L104">
         <f t="shared" si="2"/>
-        <v>0.48963609000000008</v>
+        <v>0.49246416000000021</v>
       </c>
       <c r="M104">
         <f t="shared" si="3"/>
-        <v>0.42569999999999908</v>
+        <v>0.40559999999999879</v>
       </c>
     </row>
     <row r="105" spans="11:13" x14ac:dyDescent="0.2">
@@ -1718,11 +1718,11 @@
       </c>
       <c r="L105">
         <f t="shared" si="2"/>
-        <v>0.48974544000000009</v>
+        <v>0.49265856000000019</v>
       </c>
       <c r="M105">
         <f t="shared" si="3"/>
-        <v>0.42479999999999907</v>
+        <v>0.40439999999999876</v>
       </c>
     </row>
     <row r="106" spans="11:13" x14ac:dyDescent="0.2">
@@ -1731,11 +1731,11 @@
       </c>
       <c r="L106">
         <f t="shared" si="2"/>
-        <v>0.48985641000000008</v>
+        <v>0.49285584000000021</v>
       </c>
       <c r="M106">
         <f t="shared" si="3"/>
-        <v>0.42389999999999906</v>
+        <v>0.40319999999999878</v>
       </c>
     </row>
     <row r="107" spans="11:13" x14ac:dyDescent="0.2">
@@ -1744,11 +1744,11 @@
       </c>
       <c r="L107">
         <f t="shared" si="2"/>
-        <v>0.4899690000000001</v>
+        <v>0.49305600000000016</v>
       </c>
       <c r="M107">
         <f t="shared" si="3"/>
-        <v>0.4229999999999991</v>
+        <v>0.4019999999999988</v>
       </c>
     </row>
     <row r="108" spans="11:13" x14ac:dyDescent="0.2">
@@ -1757,11 +1757,11 @@
       </c>
       <c r="L108">
         <f t="shared" si="2"/>
-        <v>0.4900832100000001</v>
+        <v>0.4932590400000002</v>
       </c>
       <c r="M108">
         <f t="shared" si="3"/>
-        <v>0.42209999999999909</v>
+        <v>0.40079999999999877</v>
       </c>
     </row>
     <row r="109" spans="11:13" x14ac:dyDescent="0.2">
@@ -1770,11 +1770,11 @@
       </c>
       <c r="L109">
         <f t="shared" si="2"/>
-        <v>0.49019904000000009</v>
+        <v>0.49346496000000017</v>
       </c>
       <c r="M109">
         <f t="shared" si="3"/>
-        <v>0.42119999999999913</v>
+        <v>0.39959999999999879</v>
       </c>
     </row>
     <row r="110" spans="11:13" x14ac:dyDescent="0.2">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="L110">
         <f t="shared" si="2"/>
-        <v>0.4903164900000001</v>
+        <v>0.49367376000000018</v>
       </c>
       <c r="M110">
         <f t="shared" si="3"/>
-        <v>0.42029999999999912</v>
+        <v>0.39839999999999876</v>
       </c>
     </row>
     <row r="111" spans="11:13" x14ac:dyDescent="0.2">
@@ -1796,11 +1796,11 @@
       </c>
       <c r="L111">
         <f t="shared" si="2"/>
-        <v>0.4904355600000001</v>
+        <v>0.49388544000000023</v>
       </c>
       <c r="M111">
         <f t="shared" si="3"/>
-        <v>0.41939999999999911</v>
+        <v>0.39719999999999878</v>
       </c>
     </row>
     <row r="112" spans="11:13" x14ac:dyDescent="0.2">
@@ -1809,11 +1809,11 @@
       </c>
       <c r="L112">
         <f t="shared" si="2"/>
-        <v>0.49055625000000008</v>
+        <v>0.49410000000000021</v>
       </c>
       <c r="M112">
         <f t="shared" si="3"/>
-        <v>0.41849999999999909</v>
+        <v>0.3959999999999988</v>
       </c>
     </row>
     <row r="113" spans="11:13" x14ac:dyDescent="0.2">
@@ -1822,11 +1822,11 @@
       </c>
       <c r="L113">
         <f t="shared" si="2"/>
-        <v>0.4906785600000001</v>
+        <v>0.49431744000000022</v>
       </c>
       <c r="M113">
         <f t="shared" si="3"/>
-        <v>0.41759999999999908</v>
+        <v>0.39479999999999876</v>
       </c>
     </row>
     <row r="114" spans="11:13" x14ac:dyDescent="0.2">
@@ -1835,11 +1835,11 @@
       </c>
       <c r="L114">
         <f t="shared" si="2"/>
-        <v>0.49080249000000009</v>
+        <v>0.49453776000000021</v>
       </c>
       <c r="M114">
         <f t="shared" si="3"/>
-        <v>0.41669999999999907</v>
+        <v>0.39359999999999878</v>
       </c>
     </row>
     <row r="115" spans="11:13" x14ac:dyDescent="0.2">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="L115">
         <f t="shared" si="2"/>
-        <v>0.49092804000000023</v>
+        <v>0.49476096000000042</v>
       </c>
       <c r="M115">
         <f t="shared" si="3"/>
-        <v>0.41579999999999817</v>
+        <v>0.39239999999999758</v>
       </c>
     </row>
     <row r="116" spans="11:13" x14ac:dyDescent="0.2">
@@ -1861,11 +1861,11 @@
       </c>
       <c r="L116">
         <f t="shared" si="2"/>
-        <v>0.49105521000000024</v>
+        <v>0.49498704000000043</v>
       </c>
       <c r="M116">
         <f t="shared" si="3"/>
-        <v>0.41489999999999816</v>
+        <v>0.39119999999999755</v>
       </c>
     </row>
     <row r="117" spans="11:13" x14ac:dyDescent="0.2">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="L117">
         <f t="shared" si="2"/>
-        <v>0.49118400000000023</v>
+        <v>0.49521600000000043</v>
       </c>
       <c r="M117">
         <f t="shared" si="3"/>
-        <v>0.4139999999999982</v>
+        <v>0.38999999999999757</v>
       </c>
     </row>
   </sheetData>
